--- a/src/files/GermplasmImport/GermplasmBad.xlsx
+++ b/src/files/GermplasmImport/GermplasmBad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\breedinginsight\cucumber\src\files\GermplasmImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC8D0B-D68B-4D21-964F-CEC3CF66295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A6FC71-E59E-4B29-859E-86E9500BB852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-192" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-12" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germplasm Import" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>GID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Breeding Method</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Germ3</t>
+  </si>
+  <si>
+    <t>Germplasm Name</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1327,46 +1327,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1377,19 +1377,19 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1404,11 +1404,11 @@
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1419,16 +1419,16 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
@@ -1440,7 +1440,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
